--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_19-36.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_19-36.xlsx
@@ -110,6 +110,12 @@
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>DERTRINA TAB</t>
   </si>
   <si>
@@ -119,9 +125,6 @@
     <t>11:1</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -296,16 +299,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-5:0</t>
-  </si>
-  <si>
-    <t>96:0</t>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>97:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t>11:0</t>
@@ -1362,17 +1362,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1380,7 +1380,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1388,17 +1388,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1406,7 +1406,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1414,17 +1414,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1432,7 +1432,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1440,17 +1440,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1458,7 +1458,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1466,17 +1466,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1498,7 +1498,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1524,7 +1524,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1544,13 +1544,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1562,7 +1562,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1570,13 +1570,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1602,7 +1602,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1622,17 +1622,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1648,17 +1648,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1680,7 +1680,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1700,13 +1700,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1726,17 +1726,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1744,7 +1744,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1752,17 +1752,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1778,17 +1778,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1796,7 +1796,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1804,17 +1804,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1830,13 +1830,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1856,13 +1856,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>128.25</v>
+        <v>90</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1882,13 +1882,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>66</v>
+        <v>128.25</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1908,13 +1908,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1934,13 +1934,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1960,17 +1960,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1986,17 +1986,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>22.079999999999998</v>
+        <v>16</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2012,17 +2012,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>102</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2038,13 +2038,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2064,13 +2064,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2090,13 +2090,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2116,17 +2116,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2142,17 +2142,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2168,17 +2168,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2186,7 +2186,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2194,17 +2194,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2220,17 +2220,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2246,17 +2246,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2272,17 +2272,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2298,17 +2298,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2324,17 +2324,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2350,17 +2350,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2376,17 +2376,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2408,11 +2408,11 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2428,13 +2428,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2446,7 +2446,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2454,17 +2454,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2480,17 +2480,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>2.5</v>
+        <v>66</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2498,7 +2498,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2506,13 +2506,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>48</v>
+        <v>2.5</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2532,13 +2532,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2564,7 +2564,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2584,13 +2584,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2610,17 +2610,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2628,7 +2628,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2636,17 +2636,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2654,7 +2654,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2662,17 +2662,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2680,7 +2680,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2688,17 +2688,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2706,7 +2706,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2714,7 +2714,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2732,7 +2732,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2740,13 +2740,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2758,7 +2758,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2766,17 +2766,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2784,7 +2784,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2792,17 +2792,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2810,7 +2810,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2824,7 +2824,7 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2836,7 +2836,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2844,13 +2844,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2862,7 +2862,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2870,17 +2870,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2888,7 +2888,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2896,17 +2896,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2914,7 +2914,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2922,51 +2922,77 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="K81" s="10">
-        <v>5833.7299999999996</v>
-      </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="11">
+    <row r="81" ht="24.75" customHeight="1">
+      <c r="A81" s="6">
+        <v>78</v>
+      </c>
+      <c t="s" r="B81" s="7">
+        <v>113</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c t="s" r="H81" s="8">
+        <v>114</v>
+      </c>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="9">
+        <v>45</v>
+      </c>
+      <c r="M81" s="9"/>
+      <c t="s" r="N81" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" ht="26.25" customHeight="1">
+      <c r="K82" s="10">
+        <v>5846.7299999999996</v>
+      </c>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="11">
         <v>115</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c t="s" r="F82" s="12">
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c t="s" r="F83" s="12">
         <v>116</v>
       </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="13"/>
-      <c t="s" r="I82" s="14">
+      <c r="G83" s="12"/>
+      <c r="H83" s="13"/>
+      <c t="s" r="I83" s="14">
         <v>117</v>
       </c>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="245">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3205,10 +3231,13 @@
     <mergeCell ref="B80:G80"/>
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="I83:N83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
